--- a/_analyses/clValid-validation-report_v01.xlsx
+++ b/_analyses/clValid-validation-report_v01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12885"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18630" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -639,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M43"/>
+  <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,84 +880,100 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1">
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="1">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>21</v>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1">
+        <v>26</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="1">
-        <v>22</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>45</v>
+      <c r="G15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="1">
+        <v>26</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="1">
-        <v>22</v>
+      <c r="J15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="K15" s="1">
         <v>24</v>
@@ -965,650 +981,599 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1">
-        <v>26</v>
+      <c r="D16" s="1">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="1">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="1">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1">
         <v>26</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="1">
-        <v>22</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="1">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="1">
+        <v>15</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="1" t="s">
-        <v>57</v>
+      <c r="J19" s="1">
+        <v>36</v>
       </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="1">
-        <v>26</v>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="1">
-        <v>36</v>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="1">
+        <v>24</v>
+      </c>
+      <c r="J24" s="1">
+        <v>24</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1">
-        <v>20</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="1">
-        <v>24</v>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="1">
-        <v>24</v>
-      </c>
-      <c r="J26" s="1">
-        <v>24</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>59</v>
+      <c r="J26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>10</v>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="1">
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="1">
-        <v>22</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>11</v>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1">
         <v>20</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="1">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="1">
-        <v>15</v>
+      <c r="D29" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="1" t="s">
-        <v>66</v>
+      <c r="G29" s="1">
+        <v>20</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="1">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="1">
+      <c r="I30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="1">
         <v>20</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="1">
+      <c r="D34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
         <v>20</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="1">
-        <v>34</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="D35" s="1">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1">
         <v>15</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="1">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1">
         <v>20</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="1">
-        <v>20</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="1">
+        <v>24</v>
+      </c>
+      <c r="M36" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="1" t="s">
+      <c r="J37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1">
-        <v>20</v>
-      </c>
-      <c r="D38" s="1">
-        <v>22</v>
-      </c>
-      <c r="E38" s="1">
-        <v>15</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="1">
-        <v>26</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1">
-        <v>20</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="G39" s="1">
+        <v>24</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="1">
+      <c r="J39" s="1">
         <v>24</v>
       </c>
-      <c r="M39" t="s">
-        <v>81</v>
-      </c>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="1">
-        <v>20</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="1">
-        <v>24</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="1">
-        <v>24</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C12:K12"/>
     <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
